--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FPTU\PRN221_RE\Group-Project\Foody-E-commerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7F4A65-2D1D-4CB0-9F81-2DD736948E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90D35E8-C456-411A-9A6D-3A023E17A305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{04563DDF-AA9C-4D24-8412-1E62BF630E34}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tasks" sheetId="1" r:id="rId1"/>
+    <sheet name="Note (Create Order)" sheetId="2" r:id="rId2"/>
+    <sheet name="Note (Check Order)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Nam Anh</t>
   </si>
@@ -36,9 +38,6 @@
     <t>Vinh</t>
   </si>
   <si>
-    <t>Login/Authentication (set login user to session)</t>
-  </si>
-  <si>
     <t>Authorized</t>
   </si>
   <si>
@@ -52,15 +51,81 @@
   </si>
   <si>
     <t>CRUD Products</t>
+  </si>
+  <si>
+    <t>Administrator function</t>
+  </si>
+  <si>
+    <t>Required date</t>
+  </si>
+  <si>
+    <t>User required:</t>
+  </si>
+  <si>
+    <t>ShipAddress</t>
+  </si>
+  <si>
+    <t>Auto generate</t>
+  </si>
+  <si>
+    <t>Total price (sum of details then update to order)</t>
+  </si>
+  <si>
+    <t>Seller required:</t>
+  </si>
+  <si>
+    <t>Seller pick a created order</t>
+  </si>
+  <si>
+    <t>OrderDate (Datetime.Today or Datetime.Now)</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>ShippedDate</t>
+  </si>
+  <si>
+    <t>Freight</t>
+  </si>
+  <si>
+    <t>IsDeleted</t>
+  </si>
+  <si>
+    <t>Check out Cart (Create Order) (View Note)</t>
+  </si>
+  <si>
+    <t>Check orders (View Note)</t>
+  </si>
+  <si>
+    <t>[Support 2 người còn lại]</t>
+  </si>
+  <si>
+    <t>Có thắc mắc hoặc gặp vấn đề thì hỏi lên group mình sẽ giải đáp hoặc cùng tìm solution</t>
+  </si>
+  <si>
+    <t>Login/Authentication 
+(set login user to session)</t>
+  </si>
+  <si>
+    <t>Add Products to Cart 
+(check duplicate product on added)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -87,8 +152,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,49 +472,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0281974-0DD5-4904-AFFC-D7138709C0C5}">
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B816C9-BE3E-4BEC-9C28-C2548CA3D6C6}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A01441-3566-4EF8-AD37-06E4EA2E748B}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FPTU\PRN221_RE\Group-Project\Foody-E-commerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90D35E8-C456-411A-9A6D-3A023E17A305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA20129-92E6-4AFD-9BBF-306061B3E52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{04563DDF-AA9C-4D24-8412-1E62BF630E34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{04563DDF-AA9C-4D24-8412-1E62BF630E34}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tasks" sheetId="1" r:id="rId1"/>
-    <sheet name="Note (Create Order)" sheetId="2" r:id="rId2"/>
-    <sheet name="Note (Check Order)" sheetId="3" r:id="rId3"/>
+    <sheet name="Guide" sheetId="4" r:id="rId1"/>
+    <sheet name="Tasks" sheetId="1" r:id="rId2"/>
+    <sheet name="Note (Create Order)" sheetId="2" r:id="rId3"/>
+    <sheet name="Note (Check Order)" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Nam Anh</t>
   </si>
@@ -111,12 +112,27 @@
     <t>Add Products to Cart 
 (check duplicate product on added)</t>
   </si>
+  <si>
+    <t>Open [Package Manager Console]</t>
+  </si>
+  <si>
+    <t>Ensure [Default Project] tab is [Application Core]</t>
+  </si>
+  <si>
+    <t>Command [update-database -verbose]</t>
+  </si>
+  <si>
+    <t>sample controllers: RoleController + Account Controller</t>
+  </si>
+  <si>
+    <t>Các hàm Get() + GetFirst() truyền expression (linq query) để sort và string[] includeProperty</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +143,20 @@
     <font>
       <sz val="13"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,12 +182,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -173,6 +205,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>245076</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>83966</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61CED248-008B-B9EB-CED7-EA0A8CC9E633}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="548640"/>
+          <a:ext cx="14265876" cy="1684166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,11 +552,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D39DAE-339D-4E70-A2D5-C0FB554EB2F1}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0281974-0DD5-4904-AFFC-D7138709C0C5}">
-  <dimension ref="A2:E6"/>
+  <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -537,7 +653,17 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -547,7 +673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B816C9-BE3E-4BEC-9C28-C2548CA3D6C6}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -601,7 +727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A01441-3566-4EF8-AD37-06E4EA2E748B}">
   <dimension ref="A1:B5"/>
   <sheetViews>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FPTU\PRN221_RE\Group-Project\Foody-E-commerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA20129-92E6-4AFD-9BBF-306061B3E52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94FB46F-9CEA-4828-8DEF-7AA1B3B13651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{04563DDF-AA9C-4D24-8412-1E62BF630E34}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Nam Anh</t>
   </si>
@@ -126,6 +126,25 @@
   </si>
   <si>
     <t>Các hàm Get() + GetFirst() truyền expression (linq query) để sort và string[] includeProperty</t>
+  </si>
+  <si>
+    <t>Task 1</t>
+  </si>
+  <si>
+    <t>Task 2</t>
+  </si>
+  <si>
+    <t>Implement Delete order 
+(nhớ ràng buộc về requiredDate và shippedDate) (nếu ngày hiện tại &lt;= shippedDate || reuquiredDate thì k dc xóa)</t>
+  </si>
+  <si>
+    <t>Check orders (re-do) (View)</t>
+  </si>
+  <si>
+    <t>Check deleted orders (View)</t>
+  </si>
+  <si>
+    <t>tham khảo view Orders + Details của Tài</t>
   </si>
 </sst>
 </file>
@@ -162,15 +181,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -178,18 +209,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,21 +627,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -588,10 +654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0281974-0DD5-4904-AFFC-D7138709C0C5}">
-  <dimension ref="A2:E10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -601,73 +667,157 @@
     <col min="3" max="3" width="16.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="37.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="53.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+    </row>
+    <row r="2" spans="1:19" ht="34.799999999999997" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+    </row>
+    <row r="3" spans="1:19" ht="69.599999999999994" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="F3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="F5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F5:G5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FPTU\PRN221_RE\Group-Project\Foody-E-commerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94FB46F-9CEA-4828-8DEF-7AA1B3B13651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BC580D-DDC0-4A18-8A8B-BD3F3117B736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{04563DDF-AA9C-4D24-8412-1E62BF630E34}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Nam Anh</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>tham khảo view Orders + Details của Tài</t>
+  </si>
+  <si>
+    <t>Trung</t>
   </si>
 </sst>
 </file>
@@ -654,10 +657,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0281974-0DD5-4904-AFFC-D7138709C0C5}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -696,23 +699,17 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
     </row>
-    <row r="2" spans="1:19" ht="34.799999999999997" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="6"/>
+    <row r="2" spans="1:19" ht="69.599999999999994" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -727,25 +724,23 @@
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
     </row>
-    <row r="3" spans="1:19" ht="69.599999999999994" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="34.799999999999997" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F3" s="6"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -760,26 +755,24 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="34.799999999999997" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -794,29 +787,62 @@
       <c r="S4" s="5"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="F5" s="11" t="s">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="F6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
